--- a/experiment result/128_0.6_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.6_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02622721890527096</v>
+        <v>0.005280376955496982</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05329345793712052</v>
+        <v>0.01275442700069988</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0576871946731536</v>
+        <v>0.02284012885561994</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04191326476039536</v>
+        <v>0.01828394044099648</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04903513737467095</v>
+        <v>0.009586483052737235</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04415431887297745</v>
+        <v>0.02158495093510279</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07798437868165782</v>
+        <v>0.01748463475537737</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0472262786347404</v>
+        <v>0.01713232898009615</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06805598803675825</v>
+        <v>0.02700236202041537</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07737438085777876</v>
+        <v>0.0378006495214815</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06387774511260362</v>
+        <v>0.01547814603217636</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0892112909604327</v>
+        <v>0.02263061083973071</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04237524620858933</v>
+        <v>0.00458244336562306</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06219540078619071</v>
+        <v>0.013809604147383</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04919988194343484</v>
+        <v>0.01500518268466836</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07063809726277522</v>
+        <v>0.01897612284729676</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06428414709406145</v>
+        <v>0.01165144236438337</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02585027335578106</v>
+        <v>0.005710325458564473</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09029578377002032</v>
+        <v>0.03646165520315183</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0412105342592464</v>
+        <v>0.01353452456180387</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02872154420712529</v>
+        <v>0.01104729710705854</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03900552310001593</v>
+        <v>0.01193464814094492</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07822590599005125</v>
+        <v>0.03104179703536348</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02146796635574284</v>
+        <v>0.002449851626704694</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02438644937128556</v>
+        <v>0.002778856553643654</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07371085000857378</v>
+        <v>0.0161307418677546</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07828328800875536</v>
+        <v>0.01278035494330336</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05445479502713262</v>
+        <v>0.01247251505926965</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05142704490986856</v>
+        <v>0.01201977220837801</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05151880559923759</v>
+        <v>0.0148257139587219</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02462953828616934</v>
+        <v>0.001487021258197545</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04018140239121979</v>
+        <v>0.01145752621040262</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05798320580826156</v>
+        <v>0.01223328336849911</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04296558982557504</v>
+        <v>0.02560759994577038</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07881351769953136</v>
+        <v>0.02673614293875733</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06667159851789091</v>
+        <v>0.02378891154600835</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02674813745329727</v>
+        <v>0.005719085050751946</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05176045761247439</v>
+        <v>0.0108976410256194</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03635196216008446</v>
+        <v>0.01492392329987731</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07366120640450562</v>
+        <v>0.03023759312878212</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07233907587669984</v>
+        <v>0.02392289282228329</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05044978124314509</v>
+        <v>0.007559124875495457</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06977278509002452</v>
+        <v>0.02574166142938255</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04627147533888886</v>
+        <v>0.0142946730188532</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04408325810016891</v>
+        <v>0.01904559369159869</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06268370641015948</v>
+        <v>0.01181458125851249</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07091338465671207</v>
+        <v>0.02675690064338582</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02594181624115131</v>
+        <v>0.005955683457419513</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04948204063445701</v>
+        <v>0.004194617662054999</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0300631357092961</v>
+        <v>0.01749225266736047</v>
       </c>
     </row>
   </sheetData>
